--- a/src/main/resources/word/temp_供应商台账.xlsx
+++ b/src/main/resources/word/temp_供应商台账.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>供应商台账</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>t.createTime}}</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>{{totalAmount}}</t>
   </si>
   <si>
     <t>出口货物明细单 继兴GZ2010-4-16.xls</t>
@@ -110,23 +116,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="17">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="178" formatCode="mm/dd/yy_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="180" formatCode="mmm\ dd\,\ yy"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="0.0000_ "/>
+    <numFmt numFmtId="185" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="188" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="189" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="190" formatCode="mm/dd/yy_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="mmm\ dd\,\ yy"/>
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="184" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.00_ "/>
-    <numFmt numFmtId="187" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="188" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="189" formatCode="0_ "/>
-    <numFmt numFmtId="190" formatCode="0.0000_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -175,8 +181,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -187,16 +199,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -214,14 +218,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -235,7 +234,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -253,20 +258,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -278,16 +272,57 @@
       <charset val="0"/>
     </font>
     <font>
-      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -299,53 +334,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="蹈框"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color indexed="8"/>
       <name val="黑体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="蹈框"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -380,13 +386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,13 +410,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,91 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,45 +633,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -677,6 +644,15 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,11 +672,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,6 +706,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -731,12 +737,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="8" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="8" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="49" fontId="34" fillId="10" borderId="0">
+    <xf numFmtId="49" fontId="32" fillId="10" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="10" borderId="0">
@@ -745,180 +751,180 @@
     <xf numFmtId="49" fontId="12" fillId="10" borderId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="10" borderId="0">
+    <xf numFmtId="49" fontId="31" fillId="10" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="10" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="10" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="12" fillId="10" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,12 +962,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -973,66 +979,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1047,10 +1053,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1059,31 +1065,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="5" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1488,18 +1494,18 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E$1:E$1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20.5" style="50" customWidth="1"/>
     <col min="2" max="2" width="10" style="50" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="16.1666666666667" style="50" customWidth="1"/>
     <col min="4" max="4" width="13.8333333333333" style="50" customWidth="1"/>
     <col min="5" max="5" width="38.1666666666667" style="51" customWidth="1"/>
     <col min="6" max="6" width="9" style="52" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="50" customWidth="1"/>
+    <col min="7" max="7" width="17.1666666666667" style="50" customWidth="1"/>
     <col min="8" max="8" width="10" style="50" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="50" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="50" customWidth="1"/>
@@ -1537,14 +1543,14 @@
         <v>5</v>
       </c>
       <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="60"/>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
       <c r="L2" s="60"/>
       <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
+      <c r="N2" s="65"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="56" t="s">
@@ -1559,14 +1565,20 @@
       <c r="D3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="62" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="50"/>
       <c r="L3" s="50"/>
       <c r="M3" s="50"/>
     </row>
-    <row r="4" s="49" customFormat="1" spans="5:5">
+    <row r="4" s="49" customFormat="1" spans="2:5">
+      <c r="B4" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="58"/>
     </row>
     <row r="5" s="49" customFormat="1" spans="5:5">
@@ -1613,15 +1625,15 @@
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
       <c r="N16" s="57"/>
     </row>
     <row r="17" spans="6:13">
@@ -2499,20 +2511,20 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="13.75" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="13.75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2523,44 +2535,44 @@
     <row r="6" ht="13.75"/>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="13.75" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="13.75"/>
     <row r="14" ht="13.75" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="13.75"/>
     <row r="17" ht="13.75" spans="3:3">
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="14" spans="3:3">
@@ -2568,7 +2580,7 @@
     </row>
     <row r="26" ht="13.75" spans="3:3">
       <c r="C26" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/word/temp_供应商台账.xlsx
+++ b/src/main/resources/word/temp_供应商台账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="10640"/>
+    <workbookView windowWidth="24720" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="0602HOMETECH" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>t.deptName</t>
   </si>
   <si>
-    <t>t.createTime}}</t>
+    <t>t.actualDate}}</t>
   </si>
   <si>
     <t>总计</t>
@@ -116,23 +116,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="17">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="180" formatCode="mmm\ dd\,\ yy"/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="0.0000_ "/>
+    <numFmt numFmtId="185" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="0.0000_ "/>
-    <numFmt numFmtId="185" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="188" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="189" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="190" formatCode="mm/dd/yy_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="186" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="mm/dd/yy_)"/>
+    <numFmt numFmtId="188" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="189" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="190" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -186,9 +186,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -199,14 +198,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -218,6 +212,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -225,28 +251,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -254,13 +273,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -272,51 +284,65 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
+      <name val="蹈框"/>
       <charset val="134"/>
     </font>
     <font>
@@ -326,32 +352,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="蹈框"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -386,6 +386,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,7 +410,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,61 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,15 +648,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -672,6 +663,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -683,26 +685,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,8 +707,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,196 +735,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="20" fillId="17" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="17" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="17" borderId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="17" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="17" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="8" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="8" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="49" fontId="32" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="17" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="17" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="10" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,96 +955,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1053,66 +1053,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="1"/>
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="2"/>
-    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="3"/>
-    <cellStyle name="Grey" xfId="4"/>
-    <cellStyle name="Input [yellow]" xfId="5"/>
-    <cellStyle name="Normal_0105第二套审计报表定稿" xfId="6"/>
-    <cellStyle name="Percent [2]" xfId="7"/>
-    <cellStyle name="S1-0" xfId="8"/>
-    <cellStyle name="S1-1" xfId="9"/>
-    <cellStyle name="S1-2" xfId="10"/>
-    <cellStyle name="S1-3" xfId="11"/>
-    <cellStyle name="S1-5" xfId="12"/>
-    <cellStyle name="常规_Sheet1" xfId="13"/>
-    <cellStyle name="霓付 [0]_97MBO" xfId="14"/>
-    <cellStyle name="霓付_97MBO" xfId="15"/>
-    <cellStyle name="烹拳 [0]_97MBO" xfId="16"/>
-    <cellStyle name="千分位_ 白土" xfId="17"/>
-    <cellStyle name="千位[0]_laroux" xfId="18"/>
-    <cellStyle name="钎霖_laroux" xfId="19"/>
-    <cellStyle name="样式 1" xfId="20"/>
+    <cellStyle name="样式 1" xfId="1"/>
+    <cellStyle name="钎霖_laroux" xfId="2"/>
+    <cellStyle name="千位[0]_laroux" xfId="3"/>
+    <cellStyle name="千分位_ 白土" xfId="4"/>
+    <cellStyle name="烹拳 [0]_97MBO" xfId="5"/>
+    <cellStyle name="霓付_97MBO" xfId="6"/>
+    <cellStyle name="霓付 [0]_97MBO" xfId="7"/>
+    <cellStyle name="常规_Sheet1" xfId="8"/>
+    <cellStyle name="S1-5" xfId="9"/>
+    <cellStyle name="S1-3" xfId="10"/>
+    <cellStyle name="S1-2" xfId="11"/>
+    <cellStyle name="S1-1" xfId="12"/>
+    <cellStyle name="S1-0" xfId="13"/>
+    <cellStyle name="Percent [2]" xfId="14"/>
+    <cellStyle name="Normal_0105第二套审计报表定稿" xfId="15"/>
+    <cellStyle name="Input [yellow]" xfId="16"/>
+    <cellStyle name="Grey" xfId="17"/>
+    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="18"/>
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="19"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="20"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="21" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="22" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="23" builtinId="41"/>
@@ -1148,8 +1148,8 @@
     <cellStyle name="_Book1_1" xfId="53"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="54" builtinId="43"/>
     <cellStyle name="千位分隔" xfId="55" builtinId="3"/>
-    <cellStyle name="_Book1" xfId="56"/>
-    <cellStyle name="S1-4" xfId="57"/>
+    <cellStyle name="S1-4" xfId="56"/>
+    <cellStyle name="_Book1" xfId="57"/>
     <cellStyle name="已访问的超链接" xfId="58" builtinId="9"/>
     <cellStyle name="标题" xfId="59" builtinId="15"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="60" builtinId="35"/>
@@ -1494,7 +1494,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
